--- a/template.xlsx
+++ b/template.xlsx
@@ -163,25 +163,25 @@
     <t>re</t>
   </si>
   <si>
-    <t>company_pat value</t>
-  </si>
-  <si>
-    <t>risk_pat value</t>
-  </si>
-  <si>
-    <t>date_pat p1</t>
+    <t>company value</t>
+  </si>
+  <si>
+    <t>risk value</t>
+  </si>
+  <si>
+    <t>date p1</t>
   </si>
   <si>
     <t>last p2</t>
   </si>
   <si>
-    <t>policy_pat value</t>
-  </si>
-  <si>
-    <t>currency_pat p1</t>
-  </si>
-  <si>
-    <t>currency_pat p2</t>
+    <t>policy value</t>
+  </si>
+  <si>
+    <t>currency p1</t>
+  </si>
+  <si>
+    <t>currency p2</t>
   </si>
   <si>
     <t>format</t>
@@ -17786,7 +17786,9 @@
       <c r="H6" s="10"/>
       <c r="I6" s="6"/>
       <c r="J6" s="9"/>
-      <c r="K6" s="2"/>
+      <c r="K6" t="s" s="2">
+        <v>10</v>
+      </c>
       <c r="L6" s="10"/>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>

--- a/template.xlsx
+++ b/template.xlsx
@@ -154,31 +154,31 @@
     <t>width</t>
   </si>
   <si>
-    <t>derive</t>
-  </si>
-  <si>
     <t>re</t>
   </si>
   <si>
-    <t>company value</t>
-  </si>
-  <si>
-    <t>risk value</t>
-  </si>
-  <si>
-    <t>date p1</t>
-  </si>
-  <si>
-    <t>last p2</t>
-  </si>
-  <si>
-    <t>policy value</t>
-  </si>
-  <si>
-    <t>currency p1</t>
-  </si>
-  <si>
-    <t>currency p2</t>
+    <t>company:value:Client Code</t>
+  </si>
+  <si>
+    <t>company:value:Insurer Code</t>
+  </si>
+  <si>
+    <t>risk:value:Risk</t>
+  </si>
+  <si>
+    <t>date:p1:</t>
+  </si>
+  <si>
+    <t>last:p2:</t>
+  </si>
+  <si>
+    <t>policy:value:</t>
+  </si>
+  <si>
+    <t>currency:p1:Currency (Sum Insured)</t>
+  </si>
+  <si>
+    <t>currency:p2:</t>
   </si>
   <si>
     <t>format</t>
@@ -16170,7 +16170,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -16257,36 +16257,6 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="10"/>
@@ -16320,13 +16290,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -16357,25 +16342,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -17799,30 +17781,40 @@
       <c r="A5" t="s" s="5">
         <v>46</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" t="s" s="2">
-        <v>3</v>
-      </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="10"/>
-      <c r="F5" t="s" s="2">
-        <v>4</v>
-      </c>
-      <c r="G5" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="10"/>
-      <c r="K5" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="L5" s="11"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="10"/>
+      <c r="D5" t="s" s="5">
+        <v>47</v>
+      </c>
+      <c r="E5" t="s" s="5">
+        <v>48</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" t="s" s="4">
+        <v>49</v>
+      </c>
+      <c r="H5" t="s" s="5">
+        <v>50</v>
+      </c>
+      <c r="I5" t="s" s="5">
+        <v>51</v>
+      </c>
+      <c r="J5" t="s" s="5">
+        <v>52</v>
+      </c>
+      <c r="K5" t="s" s="4">
+        <v>53</v>
+      </c>
+      <c r="L5" t="s" s="5">
+        <v>51</v>
+      </c>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
+      <c r="Q5" t="s" s="5">
+        <v>54</v>
+      </c>
       <c r="R5" s="7"/>
       <c r="S5" s="7"/>
       <c r="T5" s="7"/>
@@ -17835,56 +17827,54 @@
     </row>
     <row r="6" ht="16" customHeight="1">
       <c r="A6" t="s" s="5">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B6" s="7"/>
-      <c r="C6" s="12"/>
-      <c r="D6" t="s" s="5">
-        <v>48</v>
-      </c>
-      <c r="E6" t="s" s="5">
-        <v>48</v>
-      </c>
-      <c r="F6" s="12"/>
-      <c r="G6" t="s" s="4">
-        <v>49</v>
-      </c>
-      <c r="H6" t="s" s="5">
-        <v>50</v>
-      </c>
-      <c r="I6" t="s" s="5">
-        <v>51</v>
-      </c>
-      <c r="J6" t="s" s="5">
-        <v>52</v>
-      </c>
-      <c r="K6" t="s" s="4">
-        <v>53</v>
-      </c>
-      <c r="L6" t="s" s="5">
-        <v>51</v>
-      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
       <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
+      <c r="N6" t="s" s="5">
+        <v>56</v>
+      </c>
+      <c r="O6" t="s" s="5">
+        <v>57</v>
+      </c>
+      <c r="P6" t="s" s="5">
+        <v>56</v>
+      </c>
       <c r="Q6" t="s" s="5">
-        <v>54</v>
-      </c>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
+        <v>56</v>
+      </c>
+      <c r="R6" t="s" s="5">
+        <v>57</v>
+      </c>
+      <c r="S6" t="s" s="5">
+        <v>56</v>
+      </c>
+      <c r="T6" t="s" s="5">
+        <v>57</v>
+      </c>
+      <c r="U6" t="s" s="5">
+        <v>56</v>
+      </c>
+      <c r="V6" t="s" s="5">
+        <v>56</v>
+      </c>
       <c r="W6" s="7"/>
       <c r="X6" s="7"/>
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
     </row>
     <row r="7" ht="16" customHeight="1">
-      <c r="A7" t="s" s="5">
-        <v>55</v>
-      </c>
+      <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -17897,33 +17887,15 @@
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
-      <c r="N7" t="s" s="5">
-        <v>56</v>
-      </c>
-      <c r="O7" t="s" s="5">
-        <v>57</v>
-      </c>
-      <c r="P7" t="s" s="5">
-        <v>56</v>
-      </c>
-      <c r="Q7" t="s" s="5">
-        <v>56</v>
-      </c>
-      <c r="R7" t="s" s="5">
-        <v>57</v>
-      </c>
-      <c r="S7" t="s" s="5">
-        <v>56</v>
-      </c>
-      <c r="T7" t="s" s="5">
-        <v>57</v>
-      </c>
-      <c r="U7" t="s" s="5">
-        <v>56</v>
-      </c>
-      <c r="V7" t="s" s="5">
-        <v>56</v>
-      </c>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
       <c r="W7" s="7"/>
       <c r="X7" s="7"/>
       <c r="Y7" s="7"/>
@@ -17958,60 +17930,60 @@
       <c r="Z8" s="7"/>
     </row>
     <row r="9" ht="16" customHeight="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="13"/>
     </row>
     <row r="10" ht="16" customHeight="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="14"/>
-      <c r="X10" s="14"/>
-      <c r="Y10" s="14"/>
-      <c r="Z10" s="15"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18030,8 +18002,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="5" width="8.85156" style="16" customWidth="1"/>
-    <col min="6" max="256" width="8.85156" style="16" customWidth="1"/>
+    <col min="1" max="5" width="8.85156" style="14" customWidth="1"/>
+    <col min="6" max="256" width="8.85156" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16" customHeight="1">
@@ -18041,7 +18013,7 @@
       <c r="B1" t="s" s="2">
         <v>58</v>
       </c>
-      <c r="C1" s="11"/>
+      <c r="C1" s="15"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
     </row>
@@ -42614,8 +42586,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="5" width="8.85156" style="17" customWidth="1"/>
-    <col min="6" max="256" width="8.85156" style="17" customWidth="1"/>
+    <col min="1" max="5" width="8.85156" style="16" customWidth="1"/>
+    <col min="6" max="256" width="8.85156" style="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16" customHeight="1">
@@ -42625,7 +42597,7 @@
       <c r="B1" t="s" s="2">
         <v>4509</v>
       </c>
-      <c r="C1" s="11"/>
+      <c r="C1" s="15"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
     </row>
@@ -46221,8 +46193,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="5" width="8.85156" style="18" customWidth="1"/>
-    <col min="6" max="256" width="8.85156" style="18" customWidth="1"/>
+    <col min="1" max="5" width="8.85156" style="17" customWidth="1"/>
+    <col min="6" max="256" width="8.85156" style="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16" customHeight="1">
@@ -46243,14 +46215,14 @@
       </c>
     </row>
     <row r="2" ht="16" customHeight="1">
-      <c r="A2" s="12"/>
+      <c r="A2" s="10"/>
       <c r="B2" t="s" s="4">
         <v>5151</v>
       </c>
       <c r="C2" t="s" s="4">
         <v>36</v>
       </c>
-      <c r="D2" s="12"/>
+      <c r="D2" s="10"/>
       <c r="E2" t="s" s="4">
         <v>5152</v>
       </c>
